--- a/excel/dosyalar/Stok_listesi.xlsx
+++ b/excel/dosyalar/Stok_listesi.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H272"/>
+  <dimension ref="A1:H243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
@@ -524,83 +524,83 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Installation Materials</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>1 LT</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>1 LT</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1 LT</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>VH34</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Elkay Maximax</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>1 LT</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>1 LT</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1 LT</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Tumbled</t>
+          <t>VH72</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Elkay Maxiseal</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -610,35 +610,35 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>90</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Limestone Tile</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -648,121 +648,121 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Marble Skirting</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Travertine Risers</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>14,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed</t>
+          <t>Tumbled</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Marble Risers</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -772,68 +772,68 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>Blanco Ivory</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>21.6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Marble Risers</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>165,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Blanco Ivory</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>6.19</v>
+        <v>38.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Facade</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -853,242 +853,242 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>Classic Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>Desert Silver</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>50.3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>50.3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>77.76000000000001</v>
+        <v>266.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Risers</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>Tumbled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Blanco Ivory</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>41.86</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Risers</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>165,0</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Blanco Ivory</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>44.58</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Limestone Mosaic</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Limestone</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>90.54000000000001</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17">
@@ -1104,29 +1104,29 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Desert Silver</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>572.5700000000001</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="18">
@@ -1142,29 +1142,29 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>585.58</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="19">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -1190,19 +1190,19 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>Golden Ink Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>40</v>
+        <v>156.282</v>
       </c>
     </row>
     <row r="20">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -1233,14 +1233,14 @@
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>38.14</v>
+        <v>38.88</v>
       </c>
     </row>
     <row r="21">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
@@ -1266,323 +1266,323 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>189.31</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>Split face&amp;Honed</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>8.74</v>
+        <v>81.86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Pavers</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Split face&amp;Honed</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Pavers</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>Silver Panel 3D</t>
+          <t>Silver Brown</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>17.82</v>
+        <v>35.16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>3D Noce Puzzle</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>34.56</v>
+        <v>18.5585</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>45.9</v>
+        <v>44.58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>3D</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>60.48</v>
+        <v>78.0556</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>25.92</v>
+        <v>266.0503</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>Philadelphia Panel</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>64.8</v>
+        <v>38.14</v>
       </c>
     </row>
     <row r="30">
@@ -1598,29 +1598,29 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Split face&amp;Honed</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>6.3</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1641,17 +1641,17 @@
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>Silver Panel</t>
+          <t>Silver Panel 3D</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -1664,39 +1664,39 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>Marble Mosaic</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>Cubic Beige 3D</t>
+          <t>3D Noce Puzzle</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>50.22</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="33">
@@ -1707,34 +1707,34 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Metsil 31-3D&amp;Splitface</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>Silver Cubic Mix</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>50.22</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="34">
@@ -1745,12 +1745,12 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
@@ -1765,14 +1765,14 @@
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>Gold Mix</t>
+          <t>Philadelphia Panel</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
         <v>3</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>75.33</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="35">
@@ -1783,17 +1783,17 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
@@ -1803,45 +1803,45 @@
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Silver Panel</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>20.93</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Marble Mosaic</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Cubic Beige 3D</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
@@ -1874,40 +1874,40 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Metsil 31-3D&amp;Splitface</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Cubic Mix</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>53.94</v>
+        <v>25.11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">2,5 </t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
@@ -1917,35 +1917,35 @@
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>Classic Cubic</t>
+          <t>Gold Mix</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>17.12</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>Marble Mosaic</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
@@ -1955,68 +1955,68 @@
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>Emperador Dark</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>40.18</v>
+        <v>20.93</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>21.6</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t xml:space="preserve">2,5 </t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
@@ -2026,57 +2026,57 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut 3D</t>
+          <t>Classic Cubic</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>20.88</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Limestone Skirting</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>163,2</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>52.74</v>
+        <v>93.02</v>
       </c>
     </row>
     <row r="43">
@@ -2087,12 +2087,12 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
@@ -2102,57 +2102,57 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>Romano</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>263.7</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Classic Vein Cut 3D</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>237.33</v>
+        <v>125.28</v>
       </c>
     </row>
     <row r="45">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
@@ -2178,19 +2178,19 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>84.06</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="46">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
@@ -2216,19 +2216,19 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Romano</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>87.37</v>
+        <v>131.85</v>
       </c>
     </row>
     <row r="47">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
@@ -2254,19 +2254,19 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>126.09</v>
+        <v>184.59</v>
       </c>
     </row>
     <row r="48">
@@ -2297,14 +2297,14 @@
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>87.37</v>
+        <v>158.24</v>
       </c>
     </row>
     <row r="49">
@@ -2330,19 +2330,19 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>Romano</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>52.74</v>
+        <v>84.06</v>
       </c>
     </row>
     <row r="50">
@@ -2373,14 +2373,14 @@
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>128.58</v>
+        <v>44.51</v>
       </c>
     </row>
     <row r="51">
@@ -2406,25 +2406,25 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Semi Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>84.89</v>
+        <v>126.09</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
@@ -2439,30 +2439,30 @@
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina Panel</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>17.64</v>
+        <v>39.56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
@@ -2477,30 +2477,30 @@
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>Gold Beige Panel</t>
+          <t>Romano</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>49.86</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
@@ -2515,30 +2515,30 @@
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>Noche Beige Corner</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>17.64</v>
+        <v>128.58</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
@@ -2553,30 +2553,30 @@
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>Noche Beige Panel</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>35.28</v>
+        <v>165.65</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
@@ -2591,30 +2591,30 @@
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>Noche Panel</t>
+          <t>Silver Vein Cut</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>35.28</v>
+        <v>84.89</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
@@ -2624,35 +2624,35 @@
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Gold Beige Panel</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H57" s="4" t="n">
-        <v>79.26000000000001</v>
+        <v>49.86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
@@ -2662,35 +2662,35 @@
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Noche Beige Corner</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="4" t="n">
-        <v>84.20999999999999</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
@@ -2700,35 +2700,35 @@
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Noche Beige Panel</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H59" s="4" t="n">
-        <v>317.04</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
@@ -2738,29 +2738,29 @@
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>Golden Ink Vein Cut</t>
+          <t>Noche Panel</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="4" t="n">
-        <v>39.63</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="61">
@@ -2791,14 +2791,14 @@
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="4" t="n">
-        <v>39.63</v>
+        <v>79.26000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -2829,14 +2829,14 @@
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H62" s="4" t="n">
-        <v>360.62</v>
+        <v>123.84</v>
       </c>
     </row>
     <row r="63">
@@ -2867,14 +2867,14 @@
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>81.73</v>
+        <v>707.37</v>
       </c>
     </row>
     <row r="64">
@@ -2900,19 +2900,19 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>448.28</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="65">
@@ -2938,57 +2938,57 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>133.74</v>
+        <v>360.62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>126</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="67">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
@@ -3019,20 +3019,20 @@
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H67" s="4" t="n">
-        <v>5.4</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
@@ -3052,19 +3052,19 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Anatolia Beige</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" s="4" t="n">
-        <v>22.68</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="69">
@@ -3095,14 +3095,14 @@
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H69" s="4" t="n">
-        <v>21.6</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="70">
@@ -3133,14 +3133,14 @@
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="4" t="n">
-        <v>45.36</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="71">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>23.76</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="72">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="G72" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="4" t="n">
-        <v>44.82</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="73">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Combed</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="4" t="n">
-        <v>0</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="74">
@@ -3298,83 +3298,83 @@
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Mosaic</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Unfilled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H75" s="4" t="n">
-        <v>1204</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>Travertine Pavers</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H76" s="4" t="n">
-        <v>21.96</v>
+        <v>34.61</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>Marble Mosaic</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
@@ -3394,25 +3394,25 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Polished&amp;Bevelled</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>Basketweave</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H77" s="4" t="n">
-        <v>6.51</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
@@ -3427,30 +3427,30 @@
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="4" t="n">
-        <v>48.56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
@@ -3465,24 +3465,24 @@
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>110.7</v>
+        <v>71.44</v>
       </c>
     </row>
     <row r="80">
@@ -3508,19 +3508,19 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="4" t="n">
-        <v>71.44</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="81">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
@@ -3589,14 +3589,14 @@
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" s="4" t="n">
-        <v>20</v>
+        <v>79.26000000000001</v>
       </c>
     </row>
     <row r="83">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
@@ -3627,14 +3627,14 @@
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H83" s="4" t="n">
-        <v>156.28</v>
+        <v>78.0556</v>
       </c>
     </row>
     <row r="84">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
@@ -3665,14 +3665,14 @@
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H84" s="4" t="n">
-        <v>118.89</v>
+        <v>266.23</v>
       </c>
     </row>
     <row r="85">
@@ -3703,14 +3703,14 @@
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H85" s="4" t="n">
-        <v>422.35</v>
+        <v>72.4802</v>
       </c>
     </row>
     <row r="86">
@@ -3736,25 +3736,25 @@
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H86" s="4" t="n">
-        <v>35.54</v>
+        <v>195.1434</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
@@ -3764,35 +3764,35 @@
       </c>
       <c r="C87" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D87" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" s="4" t="n">
-        <v>67.53</v>
+        <v>39.03</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B88" s="4" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="C88" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D88" s="4" t="inlineStr">
@@ -3812,25 +3812,25 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" s="4" t="n">
-        <v>59.54</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="C89" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D89" s="4" t="inlineStr">
@@ -3850,19 +3850,19 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H89" s="4" t="n">
-        <v>37.21</v>
+        <v>195.15</v>
       </c>
     </row>
     <row r="90">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D90" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E90" s="4" t="inlineStr">
@@ -3893,20 +3893,20 @@
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>Sofita Beige</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H90" s="4" t="n">
-        <v>59.54</v>
+        <v>43.61</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
@@ -3921,30 +3921,30 @@
       </c>
       <c r="D91" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished&amp;Bevelled</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H91" s="4" t="n">
-        <v>390.7</v>
+        <v>25.11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B92" s="4" t="inlineStr">
@@ -3959,30 +3959,30 @@
       </c>
       <c r="D92" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Turkish Carrara</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" s="4" t="n">
-        <v>117.21</v>
+        <v>18.61</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
@@ -4002,25 +4002,25 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>Classic Mix</t>
+          <t>Anatolia Beige</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" s="4" t="n">
-        <v>26.42</v>
+        <v>59.54</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B94" s="4" t="inlineStr">
@@ -4040,12 +4040,12 @@
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>Classic Mix</t>
+          <t>Sofita Beige</t>
         </is>
       </c>
       <c r="G94" s="4" t="n">
@@ -4083,14 +4083,14 @@
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H95" s="4" t="n">
-        <v>1319.08</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="96">
@@ -4116,19 +4116,19 @@
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G96" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" s="4" t="n">
-        <v>39.07</v>
+        <v>78.14</v>
       </c>
     </row>
     <row r="97">
@@ -4154,19 +4154,19 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F97" s="4" t="inlineStr">
         <is>
-          <t>Ela</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G97" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H97" s="4" t="n">
-        <v>37.21</v>
+        <v>342.332</v>
       </c>
     </row>
     <row r="98">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="G99" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H99" s="4" t="n">
-        <v>194.23</v>
+        <v>272.3705</v>
       </c>
     </row>
     <row r="100">
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="G101" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H101" s="4" t="n">
-        <v>39.07</v>
+        <v>156.2805</v>
       </c>
     </row>
     <row r="102">
@@ -4344,19 +4344,19 @@
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Golden Ink Vein Cut</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H102" s="4" t="n">
-        <v>117.21</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="103">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="G103" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>195.35</v>
+        <v>156.28</v>
       </c>
     </row>
     <row r="104">
@@ -4420,19 +4420,19 @@
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>Latte</t>
+          <t>Meandros Vein Cut</t>
         </is>
       </c>
       <c r="G104" s="4" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>39.07</v>
+        <v>1758.1545</v>
       </c>
     </row>
     <row r="105">
@@ -4458,19 +4458,19 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>Meandros Vein Cut</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H105" s="4" t="n">
-        <v>1970.24</v>
+        <v>429.77</v>
       </c>
     </row>
     <row r="106">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="G107" s="4" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="H107" s="4" t="n">
-        <v>1680.01</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="108">
@@ -4572,19 +4572,19 @@
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>39.07</v>
+        <v>1562.8025</v>
       </c>
     </row>
     <row r="109">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
@@ -4619,10 +4619,10 @@
         </is>
       </c>
       <c r="G109" s="4" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>1786.8</v>
+        <v>290.35</v>
       </c>
     </row>
     <row r="110">
@@ -4653,14 +4653,14 @@
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Noche Rustic Vein Cut</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>351.63</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="111">
@@ -4686,19 +4686,19 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>Noche Rustic Vein Cut</t>
+          <t>Noche Vein Cut</t>
         </is>
       </c>
       <c r="G111" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>39.07</v>
+        <v>156.28</v>
       </c>
     </row>
     <row r="112">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
@@ -4733,10 +4733,10 @@
         </is>
       </c>
       <c r="G112" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H112" s="4" t="n">
-        <v>156.28</v>
+        <v>78.14</v>
       </c>
     </row>
     <row r="113">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
         <is>
-          <t>Noche Vein Cut</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="G113" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H113" s="4" t="n">
-        <v>78.14</v>
+        <v>238.16</v>
       </c>
     </row>
     <row r="114">
@@ -4838,12 +4838,12 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F115" s="4" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G115" s="4" t="n">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>Silver Rustic Vein Cut</t>
+          <t>Silver Mix</t>
         </is>
       </c>
       <c r="G116" s="4" t="n">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr">
@@ -4923,10 +4923,10 @@
         </is>
       </c>
       <c r="G117" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H117" s="4" t="n">
-        <v>78.14</v>
+        <v>156.28</v>
       </c>
     </row>
     <row r="118">
@@ -4952,19 +4952,19 @@
       </c>
       <c r="E118" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Silver Rustic Vein Cut</t>
         </is>
       </c>
       <c r="G118" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H118" s="4" t="n">
-        <v>78.14</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="119">
@@ -4995,14 +4995,14 @@
       </c>
       <c r="F119" s="4" t="inlineStr">
         <is>
-          <t>Storm Noche</t>
+          <t>Silver Vein Cut</t>
         </is>
       </c>
       <c r="G119" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H119" s="4" t="n">
-        <v>37.95</v>
+        <v>156.28</v>
       </c>
     </row>
     <row r="120">
@@ -5028,19 +5028,19 @@
       </c>
       <c r="E120" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Silver Vein Cut</t>
         </is>
       </c>
       <c r="G120" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H120" s="4" t="n">
-        <v>59.54</v>
+        <v>156.28</v>
       </c>
     </row>
     <row r="121">
@@ -5071,14 +5071,14 @@
       </c>
       <c r="F121" s="4" t="inlineStr">
         <is>
-          <t>Volcano</t>
+          <t>Storm Noche</t>
         </is>
       </c>
       <c r="G121" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H121" s="4" t="n">
-        <v>78.14</v>
+        <v>37.95</v>
       </c>
     </row>
     <row r="122">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="E122" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F122" s="4" t="inlineStr">
@@ -5113,10 +5113,10 @@
         </is>
       </c>
       <c r="G122" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H122" s="4" t="n">
-        <v>39.07</v>
+        <v>156.28</v>
       </c>
     </row>
     <row r="123">
@@ -5142,19 +5142,19 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F123" s="4" t="inlineStr">
         <is>
-          <t>Volcano Vein Cut</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="G123" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H123" s="4" t="n">
-        <v>156.28</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="124">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="E124" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr">
@@ -5189,10 +5189,10 @@
         </is>
       </c>
       <c r="G124" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H124" s="4" t="n">
-        <v>217.85</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="125">
@@ -5223,14 +5223,14 @@
       </c>
       <c r="F125" s="4" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Volcano Vein Cut</t>
         </is>
       </c>
       <c r="G125" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H125" s="4" t="n">
-        <v>37.95</v>
+        <v>217.85</v>
       </c>
     </row>
     <row r="126">
@@ -5265,10 +5265,10 @@
         </is>
       </c>
       <c r="G126" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H126" s="4" t="n">
-        <v>156.28</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="127">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="G127" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H127" s="4" t="n">
-        <v>156.28</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="128">
@@ -5332,7 +5332,7 @@
       </c>
       <c r="E128" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F128" s="4" t="inlineStr">
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="H128" s="4" t="n">
-        <v>39.07</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="129">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="D129" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E129" s="4" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="F129" s="4" t="inlineStr">
         <is>
-          <t>Yellow Vein Cut</t>
+          <t>Ela</t>
         </is>
       </c>
       <c r="G129" s="4" t="n">
@@ -5408,19 +5408,19 @@
       </c>
       <c r="E130" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F130" s="4" t="inlineStr">
         <is>
-          <t>Ela</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G130" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130" s="4" t="n">
-        <v>23.44</v>
+        <v>45.7684</v>
       </c>
     </row>
     <row r="131">
@@ -5484,25 +5484,25 @@
       </c>
       <c r="E132" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Brushed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F132" s="4" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="G132" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H132" s="4" t="n">
-        <v>15.07</v>
+        <v>12.2793</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Coping</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
@@ -5512,45 +5512,45 @@
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D133" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Beveled</t>
         </is>
       </c>
       <c r="F133" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="G133" s="4" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H133" s="4" t="n">
-        <v>793.15</v>
+        <v>7.442</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>31,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D134" s="4" t="inlineStr">
@@ -5560,133 +5560,133 @@
       </c>
       <c r="E134" s="4" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Raw</t>
         </is>
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
-          <t>Gold Classic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G134" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" s="4" t="n">
-        <v>54.07</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>34,0</t>
+          <t>31,0</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D135" s="4" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Gold Classic</t>
         </is>
       </c>
       <c r="G135" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" s="4" t="n">
-        <v>34.55</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="inlineStr">
         <is>
-          <t>Marble Threads</t>
+          <t>Travertine Coping</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>35,0</t>
+          <t>33,0</t>
         </is>
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D136" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed&amp;Grooved</t>
+          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="G136" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H136" s="4" t="n">
-        <v>22</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>Travertine Sink</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>35,0</t>
+          <t>33,5</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>90,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D137" s="4" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="G137" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H137" s="4" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138">
@@ -5702,35 +5702,35 @@
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="D138" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
         <is>
-          <t>Ivory</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="G138" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H138" s="4" t="n">
-        <v>15.35</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Marble Mosaic</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
@@ -5740,35 +5740,35 @@
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="F139" s="4" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="G139" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H139" s="4" t="n">
-        <v>26.79</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>Travertine Moulding</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
@@ -5778,35 +5778,35 @@
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="D140" s="4" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E140" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Tumbled&amp;Splitface&amp;Varnish</t>
         </is>
       </c>
       <c r="F140" s="4" t="inlineStr">
         <is>
-          <t>Classic Ogee 1</t>
+          <t>Safari Gold</t>
         </is>
       </c>
       <c r="G140" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" s="4" t="n">
-        <v>100</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>Marble Mosaic</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
@@ -5826,95 +5826,95 @@
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Tumbled&amp;Splitface&amp;Varnish</t>
         </is>
       </c>
       <c r="F141" s="4" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Safari Silver</t>
         </is>
       </c>
       <c r="G141" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" s="4" t="n">
-        <v>25.12</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>40,0</t>
         </is>
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="D142" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E142" s="4" t="inlineStr">
         <is>
-          <t>Tumbled&amp;Splitface&amp;Varnish</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F142" s="4" t="inlineStr">
         <is>
-          <t>Safari Gold</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="G142" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H142" s="4" t="n">
-        <v>50.22</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>40,0</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="D143" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>Tumbled&amp;Splitface&amp;Varnish</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F143" s="4" t="inlineStr">
         <is>
-          <t>Safari Silver</t>
+          <t>Noche Vein Cut</t>
         </is>
       </c>
       <c r="G143" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143" s="4" t="n">
-        <v>50.22</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="144">
@@ -5930,29 +5930,29 @@
       </c>
       <c r="C144" s="4" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>40,0</t>
         </is>
       </c>
       <c r="D144" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E144" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F144" s="4" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G144" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H144" s="4" t="n">
-        <v>39.6</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="145">
@@ -5968,35 +5968,35 @@
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>40,0</t>
         </is>
       </c>
       <c r="D145" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F145" s="4" t="inlineStr">
         <is>
-          <t>Noche Vein Cut</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G145" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H145" s="4" t="n">
-        <v>16.4</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="C146" s="4" t="inlineStr">
         <is>
-          <t>150,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="D146" s="4" t="inlineStr">
@@ -6016,19 +6016,19 @@
       </c>
       <c r="E146" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr">
         <is>
-          <t>Ice Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G146" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146" s="4" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147">
@@ -6044,17 +6044,17 @@
       </c>
       <c r="C147" s="4" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>80,0</t>
         </is>
       </c>
       <c r="D147" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Polished</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr">
@@ -6066,7 +6066,7 @@
         <v>1</v>
       </c>
       <c r="H147" s="4" t="n">
-        <v>27.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148">
@@ -6082,35 +6082,35 @@
       </c>
       <c r="C148" s="4" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>80,0</t>
         </is>
       </c>
       <c r="D148" s="4" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E148" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F148" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Walnut Vein Cut</t>
         </is>
       </c>
       <c r="G148" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H148" s="4" t="n">
-        <v>10.88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="C149" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>90,0</t>
         </is>
       </c>
       <c r="D149" s="4" t="inlineStr">
@@ -6130,19 +6130,19 @@
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="F149" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Puffin Grey</t>
         </is>
       </c>
       <c r="G149" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H149" s="4" t="n">
-        <v>72</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="150">
@@ -6153,34 +6153,34 @@
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="C150" s="4" t="inlineStr">
         <is>
-          <t>80,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="D150" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="G150" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H150" s="4" t="n">
-        <v>16</v>
+        <v>52.74</v>
       </c>
     </row>
     <row r="151">
@@ -6191,34 +6191,34 @@
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>80,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="D151" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F151" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G151" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" s="4" t="n">
-        <v>16</v>
+        <v>56.04</v>
       </c>
     </row>
     <row r="152">
@@ -6229,34 +6229,34 @@
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="C152" s="4" t="inlineStr">
         <is>
-          <t>80,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="D152" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E152" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F152" s="4" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G152" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H152" s="4" t="n">
-        <v>13.76</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="153">
@@ -6267,72 +6267,72 @@
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
         <is>
-          <t>80,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="D153" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F153" s="4" t="inlineStr">
         <is>
-          <t>Walnut Vein Cut</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="G153" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H153" s="4" t="n">
-        <v>16</v>
+        <v>144.72</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t>90,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D154" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E154" s="4" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F154" s="4" t="inlineStr">
         <is>
-          <t>Puffin Grey</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="G154" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H154" s="4" t="n">
-        <v>15.12</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="155">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D155" s="4" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F155" s="4" t="inlineStr">
@@ -6367,10 +6367,10 @@
         </is>
       </c>
       <c r="G155" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H155" s="4" t="n">
-        <v>52.74</v>
+        <v>161.98</v>
       </c>
     </row>
     <row r="156">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D156" s="4" t="inlineStr">
@@ -6401,14 +6401,14 @@
       </c>
       <c r="F156" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G156" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156" s="4" t="n">
-        <v>56.04</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="157">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D157" s="4" t="inlineStr">
@@ -6434,19 +6434,19 @@
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F157" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="G157" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H157" s="4" t="n">
-        <v>28.02</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="158">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D158" s="4" t="inlineStr">
@@ -6477,14 +6477,14 @@
       </c>
       <c r="F158" s="4" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Golden Ink Vein Cut</t>
         </is>
       </c>
       <c r="G158" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H158" s="4" t="n">
-        <v>28.02</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="C159" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D159" s="4" t="inlineStr">
@@ -6510,19 +6510,19 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F159" s="4" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Golden Ink Vein Cut</t>
         </is>
       </c>
       <c r="G159" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H159" s="4" t="n">
-        <v>144.72</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="160">
@@ -6548,19 +6548,19 @@
       </c>
       <c r="E160" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Tumbled</t>
         </is>
       </c>
       <c r="F160" s="4" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Licom</t>
         </is>
       </c>
       <c r="G160" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H160" s="4" t="n">
-        <v>634.08</v>
+        <v>79.26000000000001</v>
       </c>
     </row>
     <row r="161">
@@ -6586,19 +6586,19 @@
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Tumbled</t>
         </is>
       </c>
       <c r="F161" s="4" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Licom</t>
         </is>
       </c>
       <c r="G161" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H161" s="4" t="n">
-        <v>42.1</v>
+        <v>158.52</v>
       </c>
     </row>
     <row r="162">
@@ -6629,14 +6629,14 @@
       </c>
       <c r="F162" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G162" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" s="4" t="n">
-        <v>115.41</v>
+        <v>37.89</v>
       </c>
     </row>
     <row r="163">
@@ -6662,19 +6662,19 @@
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F163" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G163" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H163" s="4" t="n">
-        <v>81.73</v>
+        <v>199.14</v>
       </c>
     </row>
     <row r="164">
@@ -6700,12 +6700,12 @@
       </c>
       <c r="E164" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F164" s="4" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t>Pablo Cross Cut</t>
         </is>
       </c>
       <c r="G164" s="4" t="n">
@@ -6738,19 +6738,19 @@
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F165" s="4" t="inlineStr">
         <is>
-          <t>Golden Ink Vein Cut</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="G165" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H165" s="4" t="n">
-        <v>160</v>
+        <v>79.26000000000001</v>
       </c>
     </row>
     <row r="166">
@@ -6776,12 +6776,12 @@
       </c>
       <c r="E166" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F166" s="4" t="inlineStr">
         <is>
-          <t>Golden Ink Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G166" s="4" t="n">
@@ -6814,19 +6814,19 @@
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F167" s="4" t="inlineStr">
         <is>
-          <t>Licom</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="G167" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H167" s="4" t="n">
-        <v>59.44</v>
+        <v>824.23</v>
       </c>
     </row>
     <row r="168">
@@ -6852,19 +6852,19 @@
       </c>
       <c r="E168" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F168" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="G168" s="4" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H168" s="4" t="n">
-        <v>834.7</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="169">
@@ -6890,19 +6890,19 @@
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F169" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Storm Noche Vein Cut</t>
         </is>
       </c>
       <c r="G169" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H169" s="4" t="n">
-        <v>118.89</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="170">
@@ -6923,24 +6923,24 @@
       </c>
       <c r="D170" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E170" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F170" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G170" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H170" s="4" t="n">
-        <v>238.77</v>
+        <v>48.04</v>
       </c>
     </row>
     <row r="171">
@@ -6961,24 +6961,24 @@
       </c>
       <c r="D171" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F171" s="4" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G171" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" s="4" t="n">
-        <v>81.73</v>
+        <v>24.77</v>
       </c>
     </row>
     <row r="172">
@@ -6999,30 +6999,30 @@
       </c>
       <c r="D172" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E172" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F172" s="4" t="inlineStr">
         <is>
-          <t>Pablo Cross Cut</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G172" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H172" s="4" t="n">
-        <v>39.63</v>
+        <v>24.77</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Copings</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
@@ -7037,24 +7037,24 @@
       </c>
       <c r="D173" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+          <t>Filled&amp;Honed&amp;Bullnosed</t>
         </is>
       </c>
       <c r="F173" s="4" t="inlineStr">
         <is>
-          <t>Pablo Cross Cut</t>
+          <t>Pablo Vein Cut</t>
         </is>
       </c>
       <c r="G173" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H173" s="4" t="n">
-        <v>401.2</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="174">
@@ -7075,45 +7075,45 @@
       </c>
       <c r="D174" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E174" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F174" s="4" t="inlineStr">
         <is>
-          <t>Picasso Grey</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="G174" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H174" s="4" t="n">
-        <v>79.26000000000001</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Sink</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>45,0</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>65,0</t>
         </is>
       </c>
       <c r="D175" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>13,0</t>
         </is>
       </c>
       <c r="E175" s="4" t="inlineStr">
@@ -7123,30 +7123,30 @@
       </c>
       <c r="F175" s="4" t="inlineStr">
         <is>
-          <t>Picasso Silver</t>
+          <t>Pasha White - Special Design</t>
         </is>
       </c>
       <c r="G175" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H175" s="4" t="n">
-        <v>158.52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="C176" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D176" s="4" t="inlineStr">
@@ -7156,19 +7156,19 @@
       </c>
       <c r="E176" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F176" s="4" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="G176" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H176" s="4" t="n">
-        <v>18.33</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="177">
@@ -7179,12 +7179,12 @@
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D177" s="4" t="inlineStr">
@@ -7199,14 +7199,14 @@
       </c>
       <c r="F177" s="4" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="G177" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H177" s="4" t="n">
-        <v>361.61</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="178">
@@ -7217,12 +7217,12 @@
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="C178" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D178" s="4" t="inlineStr">
@@ -7232,19 +7232,19 @@
       </c>
       <c r="E178" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F178" s="4" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G178" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H178" s="4" t="n">
-        <v>84.2</v>
+        <v>167.079</v>
       </c>
     </row>
     <row r="179">
@@ -7255,12 +7255,12 @@
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D179" s="4" t="inlineStr">
@@ -7270,19 +7270,19 @@
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F179" s="4" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G179" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H179" s="4" t="n">
-        <v>509.67</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="180">
@@ -7293,12 +7293,12 @@
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D180" s="4" t="inlineStr">
@@ -7313,14 +7313,14 @@
       </c>
       <c r="F180" s="4" t="inlineStr">
         <is>
-          <t>Storm Noche Vein Cut</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G180" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H180" s="4" t="n">
-        <v>39.63</v>
+        <v>311.1758</v>
       </c>
     </row>
     <row r="181">
@@ -7331,12 +7331,12 @@
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D181" s="4" t="inlineStr">
@@ -7346,19 +7346,19 @@
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F181" s="4" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="G181" s="4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H181" s="4" t="n">
-        <v>634.08</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="182">
@@ -7369,34 +7369,34 @@
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="C182" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D182" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E182" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F182" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Storm Noche Onyx</t>
         </is>
       </c>
       <c r="G182" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H182" s="4" t="n">
-        <v>90.14</v>
+        <v>33.42</v>
       </c>
     </row>
     <row r="183">
@@ -7407,34 +7407,34 @@
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="D183" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F183" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="G183" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H183" s="4" t="n">
-        <v>24.77</v>
+        <v>334.2</v>
       </c>
     </row>
     <row r="184">
@@ -7445,17 +7445,17 @@
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="C184" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>91,4</t>
         </is>
       </c>
       <c r="D184" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E184" s="4" t="inlineStr">
@@ -7465,128 +7465,128 @@
       </c>
       <c r="F184" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Philadelphia Vein Cut</t>
         </is>
       </c>
       <c r="G184" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H184" s="4" t="n">
-        <v>24.77</v>
+        <v>68.92</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>Travertine Coping</t>
+          <t>Marble Sink</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>47,0</t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>47,0</t>
         </is>
       </c>
       <c r="D185" s="4" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>13,0</t>
         </is>
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Bullnosed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F185" s="4" t="inlineStr">
         <is>
-          <t>Classic Cream</t>
+          <t>Toros Black - Special Design</t>
         </is>
       </c>
       <c r="G185" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H185" s="4" t="n">
-        <v>40.26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="4" t="inlineStr">
         <is>
-          <t>Travertine Copings</t>
+          <t>Marble Mosaic</t>
         </is>
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="C186" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="D186" s="4" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E186" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed&amp;Bullnosed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F186" s="4" t="inlineStr">
         <is>
-          <t>Pablo Vein Cut</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="G186" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186" s="4" t="n">
-        <v>16.09</v>
+        <v>108.84</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="C187" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="D187" s="4" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F187" s="4" t="inlineStr">
         <is>
-          <t>Mix Koyu</t>
+          <t>Noche Vein Cut</t>
         </is>
       </c>
       <c r="G187" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H187" s="4" t="n">
-        <v>16.32</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="188">
@@ -7597,126 +7597,122 @@
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="C188" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="D188" s="4" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E188" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F188" s="4" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G188" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H188" s="4" t="n">
-        <v>24.77</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Mosaic</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="C189" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="D189" s="4" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F189" s="4" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Burdur Beige</t>
         </is>
       </c>
       <c r="G189" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H189" s="4" t="n">
-        <v>32.2</v>
+        <v>35.72</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="4" t="inlineStr">
         <is>
-          <t>Travertine Sink</t>
+          <t>Marble Mosaic</t>
         </is>
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>42,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="C190" s="4" t="inlineStr">
         <is>
-          <t>90,0</t>
-        </is>
-      </c>
-      <c r="D190" s="4" t="inlineStr">
-        <is>
-          <t>25,0</t>
-        </is>
-      </c>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="D190" s="4" t="inlineStr"/>
       <c r="E190" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F190" s="4" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Royal Beige</t>
         </is>
       </c>
       <c r="G190" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H190" s="4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>Travertine Landing</t>
+          <t>Limestone Mosaic</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>43,5</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="C191" s="4" t="inlineStr">
         <is>
-          <t>132,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D191" s="4" t="inlineStr">
@@ -7726,19 +7722,19 @@
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="F191" s="4" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="G191" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H191" s="4" t="n">
-        <v>6</v>
+        <v>80.20999999999999</v>
       </c>
     </row>
     <row r="192">
@@ -7749,12 +7745,12 @@
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>45,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="C192" s="4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="D192" s="4" t="inlineStr">
@@ -7764,57 +7760,57 @@
       </c>
       <c r="E192" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F192" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="G192" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H192" s="4" t="n">
-        <v>33.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="C193" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="D193" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F193" s="4" t="inlineStr">
         <is>
-          <t>Cappuccino Light</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G193" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H193" s="4" t="n">
-        <v>33.42</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="194">
@@ -7825,17 +7821,17 @@
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="C194" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="D194" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E194" s="4" t="inlineStr">
@@ -7845,52 +7841,52 @@
       </c>
       <c r="F194" s="4" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G194" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H194" s="4" t="n">
-        <v>33.42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="C195" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="D195" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F195" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="G195" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H195" s="4" t="n">
-        <v>20.88</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="196">
@@ -7901,34 +7897,34 @@
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="C196" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="D196" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E196" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Cement Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F196" s="4" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="G196" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H196" s="4" t="n">
-        <v>35.5</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="197">
@@ -7939,34 +7935,34 @@
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="C197" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="D197" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F197" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G197" s="4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H197" s="4" t="n">
-        <v>33.42</v>
+        <v>342</v>
       </c>
     </row>
     <row r="198">
@@ -7977,17 +7973,17 @@
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="C198" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="D198" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E198" s="4" t="inlineStr">
@@ -7997,14 +7993,14 @@
       </c>
       <c r="F198" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G198" s="4" t="n">
         <v>15</v>
       </c>
       <c r="H198" s="4" t="n">
-        <v>522.1</v>
+        <v>274.32</v>
       </c>
     </row>
     <row r="199">
@@ -8015,34 +8011,34 @@
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="C199" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="D199" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="F199" s="4" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G199" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" s="4" t="n">
-        <v>31.33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="200">
@@ -8053,72 +8049,72 @@
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="C200" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="D200" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E200" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F200" s="4" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G200" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H200" s="4" t="n">
-        <v>71</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="C201" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>183,0</t>
         </is>
       </c>
       <c r="D201" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F201" s="4" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Carrara White</t>
         </is>
       </c>
       <c r="G201" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H201" s="4" t="n">
-        <v>33.42</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="202">
@@ -8129,12 +8125,12 @@
       </c>
       <c r="B202" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="C202" s="4" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D202" s="4" t="inlineStr">
@@ -8149,261 +8145,265 @@
       </c>
       <c r="F202" s="4" t="inlineStr">
         <is>
-          <t>Storm Noche Onyx</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="G202" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H202" s="4" t="n">
-        <v>100.26</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>Marble Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="C203" s="4" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D203" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F203" s="4" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G203" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H203" s="4" t="n">
-        <v>163.26</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="C204" s="4" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="D204" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E204" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F204" s="4" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="G204" s="4" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H204" s="4" t="n">
-        <v>26.98</v>
+        <v>595.5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="C205" s="4" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>91,5</t>
         </is>
       </c>
       <c r="D205" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F205" s="4" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="G205" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H205" s="4" t="n">
-        <v>25.12</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="C206" s="4" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D206" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E206" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F206" s="4" t="inlineStr">
         <is>
-          <t>Noche Vein Cut</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G206" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H206" s="4" t="n">
-        <v>15.07</v>
+        <v>168</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="C207" s="4" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D207" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F207" s="4" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="G207" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H207" s="4" t="n">
-        <v>22.6</v>
+        <v>65.19</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="4" t="inlineStr">
         <is>
-          <t>Marble Mosaic</t>
+          <t>Limestone Tiles</t>
         </is>
       </c>
       <c r="B208" s="4" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>81,3</t>
         </is>
       </c>
       <c r="C208" s="4" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>163,2</t>
         </is>
       </c>
       <c r="D208" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E208" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="F208" s="4" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t>Classic Limestone</t>
         </is>
       </c>
       <c r="G208" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H208" s="4" t="n">
-        <v>35.72</v>
+        <v>253.4</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="inlineStr">
         <is>
-          <t>Marble Mosaic</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C209" s="4" t="inlineStr">
         <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="D209" s="4" t="inlineStr"/>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="D209" s="4" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
           <t>Polished</t>
@@ -8411,52 +8411,52 @@
       </c>
       <c r="F209" s="4" t="inlineStr">
         <is>
-          <t>Royal Beige</t>
+          <t>Bluestone</t>
         </is>
       </c>
       <c r="G209" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H209" s="4" t="n">
-        <v>13</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="4" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B210" s="4" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C210" s="4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D210" s="4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E210" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F210" s="4" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="G210" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H210" s="4" t="n">
-        <v>58</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="211">
@@ -8467,22 +8467,22 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C211" s="4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D211" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F211" s="4" t="inlineStr">
@@ -8494,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="H211" s="4" t="n">
-        <v>33</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="212">
@@ -8505,148 +8505,148 @@
       </c>
       <c r="B212" s="4" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C212" s="4" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D212" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E212" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F212" s="4" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G212" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H212" s="4" t="n">
-        <v>50</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C213" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D213" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="F213" s="4" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Ela</t>
         </is>
       </c>
       <c r="G213" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H213" s="4" t="n">
-        <v>41.04</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C214" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D214" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E214" s="4" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F214" s="4" t="inlineStr">
         <is>
-          <t>Cream Beige</t>
+          <t>Ela</t>
         </is>
       </c>
       <c r="G214" s="4" t="n">
         <v>4</v>
       </c>
       <c r="H214" s="4" t="n">
-        <v>65.16</v>
+        <v>135.31</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F215" s="4" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="G215" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H215" s="4" t="n">
-        <v>5.76</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="216">
@@ -8657,34 +8657,34 @@
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C216" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D216" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E216" s="4" t="inlineStr">
         <is>
-          <t>Cement Filled&amp;Brushed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F216" s="4" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="G216" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H216" s="4" t="n">
-        <v>52.2</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="217">
@@ -8695,34 +8695,34 @@
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C217" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D217" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Tumbled</t>
         </is>
       </c>
       <c r="F217" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="G217" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H217" s="4" t="n">
-        <v>360</v>
+        <v>115.98</v>
       </c>
     </row>
     <row r="218">
@@ -8733,34 +8733,34 @@
       </c>
       <c r="B218" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C218" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D218" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E218" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F218" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="G218" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H218" s="4" t="n">
-        <v>292.32</v>
+        <v>154.64</v>
       </c>
     </row>
     <row r="219">
@@ -8771,88 +8771,88 @@
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C219" s="4" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D219" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F219" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="G219" s="4" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="H219" s="4" t="n">
-        <v>36</v>
+        <v>1894.34</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B220" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C220" s="4" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D220" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E220" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F220" s="4" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="G220" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H220" s="4" t="n">
-        <v>500.11</v>
+        <v>850.52</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C221" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D221" s="4" t="inlineStr">
@@ -8862,35 +8862,35 @@
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F221" s="4" t="inlineStr">
         <is>
-          <t>Cappuccino Light</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="G221" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H221" s="4" t="n">
-        <v>89.31</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B222" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C222" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D222" s="4" t="inlineStr">
@@ -8900,19 +8900,19 @@
       </c>
       <c r="E222" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F222" s="4" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="G222" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H222" s="4" t="n">
-        <v>8.19</v>
+        <v>178.46</v>
       </c>
     </row>
     <row r="223">
@@ -8923,12 +8923,12 @@
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C223" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D223" s="4" t="inlineStr">
@@ -8938,19 +8938,19 @@
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Tumbled</t>
         </is>
       </c>
       <c r="F223" s="4" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="G223" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H223" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>77.31999999999999</v>
       </c>
     </row>
     <row r="224">
@@ -8961,12 +8961,12 @@
       </c>
       <c r="B224" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C224" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D224" s="4" t="inlineStr">
@@ -8976,19 +8976,19 @@
       </c>
       <c r="E224" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F224" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silverela</t>
         </is>
       </c>
       <c r="G224" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H224" s="4" t="n">
-        <v>59.54</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="225">
@@ -8999,72 +8999,72 @@
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C225" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D225" s="4" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F225" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Storm Noche</t>
         </is>
       </c>
       <c r="G225" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H225" s="4" t="n">
-        <v>55.83</v>
+        <v>154.64</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="4" t="inlineStr">
         <is>
-          <t>Travertine Pavers</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B226" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C226" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D226" s="4" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F226" s="4" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Thula Mix</t>
         </is>
       </c>
       <c r="G226" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H226" s="4" t="n">
-        <v>11.91</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="227">
@@ -9075,34 +9075,34 @@
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C227" s="4" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D227" s="4" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F227" s="4" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="G227" s="4" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H227" s="4" t="n">
-        <v>595.5</v>
+        <v>502.58</v>
       </c>
     </row>
     <row r="228">
@@ -9113,34 +9113,34 @@
       </c>
       <c r="B228" s="4" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C228" s="4" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D228" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E228" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Tumbled</t>
         </is>
       </c>
       <c r="F228" s="4" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="G228" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H228" s="4" t="n">
-        <v>198</v>
+        <v>54.27</v>
       </c>
     </row>
     <row r="229">
@@ -9151,12 +9151,12 @@
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C229" s="4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D229" s="4" t="inlineStr">
@@ -9166,19 +9166,19 @@
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F229" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Walnut</t>
         </is>
       </c>
       <c r="G229" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H229" s="4" t="n">
-        <v>168</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="230">
@@ -9189,34 +9189,34 @@
       </c>
       <c r="B230" s="4" t="inlineStr">
         <is>
-          <t>7,50</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C230" s="4" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D230" s="4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E230" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F230" s="4" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Walnut Rustic</t>
         </is>
       </c>
       <c r="G230" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H230" s="4" t="n">
-        <v>69.75</v>
+        <v>77.31999999999999</v>
       </c>
     </row>
     <row r="231">
@@ -9227,12 +9227,12 @@
       </c>
       <c r="B231" s="4" t="inlineStr">
         <is>
-          <t>7,50</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C231" s="4" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="D231" s="4" t="inlineStr">
@@ -9242,25 +9242,25 @@
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Tumbled</t>
         </is>
       </c>
       <c r="F231" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Walnut Rustic</t>
         </is>
       </c>
       <c r="G231" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H231" s="4" t="n">
-        <v>34.91</v>
+        <v>154.64</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B232" s="4" t="inlineStr">
@@ -9275,30 +9275,30 @@
       </c>
       <c r="D232" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E232" s="4" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F232" s="4" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="G232" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H232" s="4" t="n">
-        <v>103.34</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="4" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Pavers</t>
         </is>
       </c>
       <c r="B233" s="4" t="inlineStr">
@@ -9313,24 +9313,24 @@
       </c>
       <c r="D233" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F233" s="4" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G233" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H233" s="4" t="n">
-        <v>120.45</v>
+        <v>163.5</v>
       </c>
     </row>
     <row r="234">
@@ -9351,24 +9351,24 @@
       </c>
       <c r="D234" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E234" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F234" s="4" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="G234" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H234" s="4" t="n">
-        <v>214.11</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="235">
@@ -9389,24 +9389,24 @@
       </c>
       <c r="D235" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Brushed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F235" s="4" t="inlineStr">
         <is>
-          <t>Ela</t>
+          <t>Philadelphia</t>
         </is>
       </c>
       <c r="G235" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H235" s="4" t="n">
-        <v>173.97</v>
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="236">
@@ -9427,24 +9427,24 @@
       </c>
       <c r="D236" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E236" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="F236" s="4" t="inlineStr">
         <is>
-          <t>Ela</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="G236" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236" s="4" t="n">
-        <v>38.66</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="237">
@@ -9465,24 +9465,24 @@
       </c>
       <c r="D237" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Tumbled</t>
         </is>
       </c>
       <c r="F237" s="4" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Volcano Light</t>
         </is>
       </c>
       <c r="G237" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H237" s="4" t="n">
-        <v>38.66</v>
+        <v>49.05</v>
       </c>
     </row>
     <row r="238">
@@ -9503,24 +9503,24 @@
       </c>
       <c r="D238" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E238" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="F238" s="4" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="G238" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H238" s="4" t="n">
-        <v>270.62</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="239">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="B239" s="4" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>MINI</t>
         </is>
       </c>
       <c r="C239" s="4" t="inlineStr">
@@ -9551,14 +9551,14 @@
       </c>
       <c r="F239" s="4" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G239" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H239" s="4" t="n">
-        <v>347.94</v>
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="240">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="B240" s="4" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>Mini</t>
         </is>
       </c>
       <c r="C240" s="4" t="inlineStr">
@@ -9584,57 +9584,57 @@
       </c>
       <c r="E240" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="F240" s="4" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="G240" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H240" s="4" t="n">
-        <v>38.66</v>
+        <v>106.71</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="4" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Stairs</t>
         </is>
       </c>
       <c r="B241" s="4" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="C241" s="4" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="D241" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="F241" s="4" t="inlineStr">
         <is>
-          <t>Meandros Walnut</t>
+          <t>Lilac</t>
         </is>
       </c>
       <c r="G241" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H241" s="4" t="n">
-        <v>23.05</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242">
@@ -9645,34 +9645,34 @@
       </c>
       <c r="B242" s="4" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="C242" s="4" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="D242" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E242" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="F242" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G242" s="4" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H242" s="4" t="n">
-        <v>1005.16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
@@ -9683,1135 +9683,33 @@
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="C243" s="4" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="D243" s="4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="F243" s="4" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="G243" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H243" s="4" t="n">
-        <v>115.98</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B244" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C244" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D244" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E244" s="4" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="F244" s="4" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="G244" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H244" s="4" t="n">
-        <v>46.82</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B245" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C245" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D245" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E245" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="F245" s="4" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="G245" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H245" s="4" t="n">
-        <v>90.7</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B246" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C246" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D246" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E246" s="4" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Straight Edge</t>
-        </is>
-      </c>
-      <c r="F246" s="4" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="G246" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H246" s="4" t="n">
-        <v>38.66</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B247" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C247" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D247" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E247" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="F247" s="4" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="G247" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H247" s="4" t="n">
-        <v>193.3</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B248" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C248" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D248" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E248" s="4" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="F248" s="4" t="inlineStr">
-        <is>
-          <t>Silver Rustic</t>
-        </is>
-      </c>
-      <c r="G248" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H248" s="4" t="n">
-        <v>217.12</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B249" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C249" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D249" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E249" s="4" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="F249" s="4" t="inlineStr">
-        <is>
-          <t>Storm Noche</t>
-        </is>
-      </c>
-      <c r="G249" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="H249" s="4" t="n">
-        <v>541.24</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B250" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C250" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D250" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E250" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="F250" s="4" t="inlineStr">
-        <is>
-          <t>Storm Noche</t>
-        </is>
-      </c>
-      <c r="G250" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H250" s="4" t="n">
-        <v>67.66</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B251" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C251" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D251" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E251" s="4" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="F251" s="4" t="inlineStr">
-        <is>
-          <t>Thula Mix</t>
-        </is>
-      </c>
-      <c r="G251" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H251" s="4" t="n">
-        <v>38.66</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B252" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C252" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D252" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E252" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="F252" s="4" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="G252" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H252" s="4" t="n">
-        <v>160.56</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B253" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C253" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D253" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E253" s="4" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="F253" s="4" t="inlineStr">
-        <is>
-          <t>Volcano</t>
-        </is>
-      </c>
-      <c r="G253" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H253" s="4" t="n">
-        <v>77.31999999999999</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B254" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C254" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D254" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E254" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="F254" s="4" t="inlineStr">
-        <is>
-          <t>Volcano</t>
-        </is>
-      </c>
-      <c r="G254" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H254" s="4" t="n">
-        <v>54.27</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B255" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C255" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D255" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E255" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="F255" s="4" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="G255" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H255" s="4" t="n">
-        <v>38.66</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B256" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C256" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D256" s="4" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="E256" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="F256" s="4" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="G256" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H256" s="4" t="n">
-        <v>25.28</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Pavers</t>
-        </is>
-      </c>
-      <c r="B257" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C257" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D257" s="4" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="E257" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="F257" s="4" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="G257" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H257" s="4" t="n">
-        <v>98.09999999999999</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Pavers</t>
-        </is>
-      </c>
-      <c r="B258" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C258" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D258" s="4" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="E258" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="F258" s="4" t="inlineStr">
-        <is>
-          <t>Storm Noche</t>
-        </is>
-      </c>
-      <c r="G258" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H258" s="4" t="n">
-        <v>14.87</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B259" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C259" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D259" s="4" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="E259" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="F259" s="4" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="G259" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H259" s="4" t="n">
-        <v>32.7</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B260" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C260" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D260" s="4" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="E260" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="F260" s="4" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="G260" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H260" s="4" t="n">
-        <v>98.09999999999999</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B261" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C261" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D261" s="4" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="E261" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="F261" s="4" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="G261" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H261" s="4" t="n">
-        <v>16.36</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B262" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C262" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D262" s="4" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="E262" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="F262" s="4" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="G262" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="H262" s="4" t="n">
-        <v>359.71</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B263" s="4" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="C263" s="4" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="D263" s="4" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="E263" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="F263" s="4" t="inlineStr">
-        <is>
-          <t>Classic Light</t>
-        </is>
-      </c>
-      <c r="G263" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H263" s="4" t="n">
-        <v>14.87</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="4" t="inlineStr">
-        <is>
-          <t>Marble Mosaic</t>
-        </is>
-      </c>
-      <c r="B264" s="4" t="inlineStr">
-        <is>
-          <t>basketwiev</t>
-        </is>
-      </c>
-      <c r="C264" s="4" t="inlineStr">
-        <is>
-          <t>basket</t>
-        </is>
-      </c>
-      <c r="D264" s="4" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E264" s="4" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="F264" s="4" t="inlineStr">
-        <is>
-          <t>Bianco Ibiza  Mosaic 225</t>
-        </is>
-      </c>
-      <c r="G264" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H264" s="4" t="n">
-        <v>10.23</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="4" t="inlineStr">
-        <is>
-          <t>Marble Slabs</t>
-        </is>
-      </c>
-      <c r="B265" s="4" t="inlineStr">
-        <is>
-          <t>SLAB</t>
-        </is>
-      </c>
-      <c r="C265" s="4" t="inlineStr">
-        <is>
-          <t>SLAB</t>
-        </is>
-      </c>
-      <c r="D265" s="4" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="E265" s="4" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="F265" s="4" t="inlineStr">
-        <is>
-          <t>Diana Royal</t>
-        </is>
-      </c>
-      <c r="G265" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H265" s="4" t="n">
-        <v>145.56</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Slabs</t>
-        </is>
-      </c>
-      <c r="B266" s="4" t="inlineStr">
-        <is>
-          <t>SLAB</t>
-        </is>
-      </c>
-      <c r="C266" s="4" t="inlineStr">
-        <is>
-          <t>SLAB</t>
-        </is>
-      </c>
-      <c r="D266" s="4" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="E266" s="4" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Mesh</t>
-        </is>
-      </c>
-      <c r="F266" s="4" t="inlineStr">
-        <is>
-          <t>Classic Light</t>
-        </is>
-      </c>
-      <c r="G266" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H266" s="4" t="n">
-        <v>60.84</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="4" t="inlineStr">
-        <is>
-          <t>Installation Materials</t>
-        </is>
-      </c>
-      <c r="B267" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="C267" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="D267" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E267" s="4" t="inlineStr">
-        <is>
-          <t>VH44</t>
-        </is>
-      </c>
-      <c r="F267" s="4" t="inlineStr">
-        <is>
-          <t>Elkay Maximax</t>
-        </is>
-      </c>
-      <c r="G267" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H267" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="4" t="inlineStr">
-        <is>
-          <t>Marble Balustrade</t>
-        </is>
-      </c>
-      <c r="B268" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="C268" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="D268" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E268" s="4" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="F268" s="4" t="inlineStr">
-        <is>
-          <t>Burdur Beige</t>
-        </is>
-      </c>
-      <c r="G268" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H268" s="4" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="4" t="inlineStr">
-        <is>
-          <t>Marble Column</t>
-        </is>
-      </c>
-      <c r="B269" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="C269" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="D269" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E269" s="4" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="F269" s="4" t="inlineStr">
-        <is>
-          <t>Burdur Beige</t>
-        </is>
-      </c>
-      <c r="G269" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H269" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="4" t="inlineStr">
-        <is>
-          <t>Marble Countertop</t>
-        </is>
-      </c>
-      <c r="B270" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="C270" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="D270" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E270" s="4" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="F270" s="4" t="inlineStr">
-        <is>
-          <t>Burdur Beige</t>
-        </is>
-      </c>
-      <c r="G270" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H270" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="4" t="inlineStr">
-        <is>
-          <t>Marble Risers</t>
-        </is>
-      </c>
-      <c r="B271" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="C271" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="D271" s="4" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E271" s="4" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="F271" s="4" t="inlineStr">
-        <is>
-          <t>Burdur Beige</t>
-        </is>
-      </c>
-      <c r="G271" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H271" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="4" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B272" s="4" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="C272" s="4" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="D272" s="4" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="E272" s="4" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="F272" s="4" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="G272" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H272" s="4" t="n">
         <v>14.03</v>
       </c>
     </row>
